--- a/artfynd/A 64239-2021.xlsx
+++ b/artfynd/A 64239-2021.xlsx
@@ -680,7 +680,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>75200047</v>
+        <v>98677520</v>
       </c>
       <c r="B2" t="n">
         <v>78570</v>
@@ -714,19 +714,20 @@
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Väfjället Ö, Jmt</t>
+          <t>Öster om väfjället, Jmt</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>405243.815541066</v>
+        <v>405698.3343474483</v>
       </c>
       <c r="R2" t="n">
-        <v>7023664.953867411</v>
+        <v>7024227.802171786</v>
       </c>
       <c r="S2" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -750,22 +751,22 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>2018-12-06</t>
+          <t>2022-02-19</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>13:46</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2018-12-06</t>
+          <t>2022-02-19</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>13:46</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -780,22 +781,22 @@
       <c r="AT2" t="inlineStr"/>
       <c r="AW2" t="inlineStr">
         <is>
-          <t>Johan Råghall</t>
+          <t>Oskar Kullingsjö</t>
         </is>
       </c>
       <c r="AX2" t="inlineStr">
         <is>
-          <t>Johan Råghall, Andreas Johnsen</t>
+          <t>Oskar Kullingsjö</t>
         </is>
       </c>
       <c r="AY2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>75200049</v>
+        <v>98677522</v>
       </c>
       <c r="B3" t="n">
-        <v>77668</v>
+        <v>78596</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -804,41 +805,42 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1249</v>
+        <v>6462</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Norsk näverlav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Platismatia norvegica</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Lynge) W.L.Culb. &amp; C.F.Culb.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Väfjället Ö, Jmt</t>
+          <t>Öster om väfjället, Jmt</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>405250.8236957884</v>
+        <v>405698.3343474483</v>
       </c>
       <c r="R3" t="n">
-        <v>7023627.885832503</v>
+        <v>7024227.802171786</v>
       </c>
       <c r="S3" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -862,27 +864,22 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>2018-12-06</t>
+          <t>2022-02-19</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>13:46</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2018-12-06</t>
+          <t>2022-02-19</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>På björk</t>
+          <t>13:46</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -897,22 +894,22 @@
       <c r="AT3" t="inlineStr"/>
       <c r="AW3" t="inlineStr">
         <is>
-          <t>Johan Råghall</t>
+          <t>Oskar Kullingsjö</t>
         </is>
       </c>
       <c r="AX3" t="inlineStr">
         <is>
-          <t>Johan Råghall, Andreas Johnsen</t>
+          <t>Oskar Kullingsjö</t>
         </is>
       </c>
       <c r="AY3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>75200051</v>
+        <v>99109084</v>
       </c>
       <c r="B4" t="n">
-        <v>89406</v>
+        <v>78570</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -925,37 +922,40 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1204</v>
+        <v>2081</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Gränsticka</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Phellopilus nigrolimitatus</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
           <t>Väfjället Ö, Jmt</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>405250.0403920931</v>
+        <v>405532.1064589866</v>
       </c>
       <c r="R4" t="n">
-        <v>7023586.102515888</v>
+        <v>7024100.103475161</v>
       </c>
       <c r="S4" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -979,7 +979,7 @@
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>2018-12-06</t>
+          <t>2022-03-12</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
@@ -989,7 +989,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2018-12-06</t>
+          <t>2022-03-12</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
@@ -1003,28 +1003,29 @@
       <c r="AE4" t="b">
         <v>0</v>
       </c>
+      <c r="AF4" t="inlineStr"/>
       <c r="AG4" t="b">
         <v>0</v>
       </c>
       <c r="AT4" t="inlineStr"/>
       <c r="AW4" t="inlineStr">
         <is>
-          <t>Johan Råghall</t>
+          <t>Andreas Johnsen</t>
         </is>
       </c>
       <c r="AX4" t="inlineStr">
         <is>
-          <t>Johan Råghall, Andreas Johnsen</t>
+          <t>Andreas Johnsen</t>
         </is>
       </c>
       <c r="AY4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>91846294</v>
+        <v>99108983</v>
       </c>
       <c r="B5" t="n">
-        <v>55608</v>
+        <v>78570</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1037,37 +1038,40 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>102612</v>
+        <v>2081</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Järpe</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Tetrastes bonasia</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Jämtlands län, Jmt</t>
+          <t>Väfjället Ö, Jmt</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>405338.1540469945</v>
+        <v>405469.7060604398</v>
       </c>
       <c r="R5" t="n">
-        <v>7023933.221161708</v>
+        <v>7023983.2812453</v>
       </c>
       <c r="S5" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
@@ -1091,7 +1095,7 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>2019-06-01</t>
+          <t>2022-03-12</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
@@ -1101,7 +1105,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2019-10-31</t>
+          <t>2022-03-12</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
@@ -1109,35 +1113,37 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC5" t="inlineStr">
+        <is>
+          <t>På rönn.</t>
+        </is>
+      </c>
       <c r="AD5" t="b">
         <v>0</v>
       </c>
       <c r="AE5" t="b">
         <v>0</v>
       </c>
+      <c r="AF5" t="inlineStr"/>
       <c r="AG5" t="b">
         <v>0</v>
       </c>
       <c r="AT5" t="inlineStr"/>
       <c r="AW5" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Andreas Johnsen</t>
         </is>
       </c>
       <c r="AX5" t="inlineStr">
         <is>
-          <t>Via Erland Lindblad</t>
-        </is>
-      </c>
-      <c r="AY5" t="inlineStr">
-        <is>
-          <t>Kontinuitetsskogar och skogar med höga naturvärden ovan och i nära anslutning till fjällnära gränsen</t>
-        </is>
-      </c>
+          <t>Andreas Johnsen</t>
+        </is>
+      </c>
+      <c r="AY5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>98677520</v>
+        <v>75200047</v>
       </c>
       <c r="B6" t="n">
         <v>78570</v>
@@ -1171,20 +1177,19 @@
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Öster om väfjället, Jmt</t>
+          <t>Väfjället Ö, Jmt</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>405698.3343474483</v>
+        <v>405243.815541066</v>
       </c>
       <c r="R6" t="n">
-        <v>7024227.802171786</v>
+        <v>7023664.953867411</v>
       </c>
       <c r="S6" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
@@ -1208,22 +1213,22 @@
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>2022-02-19</t>
+          <t>2018-12-06</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>13:46</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2022-02-19</t>
+          <t>2018-12-06</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>13:46</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1238,22 +1243,22 @@
       <c r="AT6" t="inlineStr"/>
       <c r="AW6" t="inlineStr">
         <is>
-          <t>Oskar Kullingsjö</t>
+          <t>Johan Råghall</t>
         </is>
       </c>
       <c r="AX6" t="inlineStr">
         <is>
-          <t>Oskar Kullingsjö</t>
+          <t>Johan Råghall, Andreas Johnsen</t>
         </is>
       </c>
       <c r="AY6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>98677522</v>
+        <v>75200049</v>
       </c>
       <c r="B7" t="n">
-        <v>78596</v>
+        <v>77668</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1262,42 +1267,41 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6462</v>
+        <v>1249</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Norsk näverlav</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Platismatia norvegica</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(Lynge) W.L.Culb. &amp; C.F.Culb.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Öster om väfjället, Jmt</t>
+          <t>Väfjället Ö, Jmt</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>405698.3343474483</v>
+        <v>405250.8236957884</v>
       </c>
       <c r="R7" t="n">
-        <v>7024227.802171786</v>
+        <v>7023627.885832503</v>
       </c>
       <c r="S7" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
@@ -1321,22 +1325,27 @@
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>2022-02-19</t>
+          <t>2018-12-06</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>13:46</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2022-02-19</t>
+          <t>2018-12-06</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>13:46</t>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t>På björk</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1351,22 +1360,22 @@
       <c r="AT7" t="inlineStr"/>
       <c r="AW7" t="inlineStr">
         <is>
-          <t>Oskar Kullingsjö</t>
+          <t>Johan Råghall</t>
         </is>
       </c>
       <c r="AX7" t="inlineStr">
         <is>
-          <t>Oskar Kullingsjö</t>
+          <t>Johan Råghall, Andreas Johnsen</t>
         </is>
       </c>
       <c r="AY7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>99109084</v>
+        <v>75200051</v>
       </c>
       <c r="B8" t="n">
-        <v>78570</v>
+        <v>89406</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1379,40 +1388,37 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>2081</v>
+        <v>1204</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Gränsticka</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Phellopilus nigrolimitatus</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
           <t>Väfjället Ö, Jmt</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>405532.1064589866</v>
+        <v>405250.0403920931</v>
       </c>
       <c r="R8" t="n">
-        <v>7024100.103475161</v>
+        <v>7023586.102515888</v>
       </c>
       <c r="S8" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
@@ -1436,7 +1442,7 @@
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>2022-03-12</t>
+          <t>2018-12-06</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
@@ -1446,7 +1452,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2022-03-12</t>
+          <t>2018-12-06</t>
         </is>
       </c>
       <c r="AB8" t="inlineStr">
@@ -1460,29 +1466,28 @@
       <c r="AE8" t="b">
         <v>0</v>
       </c>
-      <c r="AF8" t="inlineStr"/>
       <c r="AG8" t="b">
         <v>0</v>
       </c>
       <c r="AT8" t="inlineStr"/>
       <c r="AW8" t="inlineStr">
         <is>
-          <t>Andreas Johnsen</t>
+          <t>Johan Råghall</t>
         </is>
       </c>
       <c r="AX8" t="inlineStr">
         <is>
-          <t>Andreas Johnsen</t>
+          <t>Johan Råghall, Andreas Johnsen</t>
         </is>
       </c>
       <c r="AY8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>99108983</v>
+        <v>91846294</v>
       </c>
       <c r="B9" t="n">
-        <v>78570</v>
+        <v>55608</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1495,40 +1500,37 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>2081</v>
+        <v>102612</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Järpe</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Tetrastes bonasia</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Väfjället Ö, Jmt</t>
+          <t>Jämtlands län, Jmt</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>405469.7060604398</v>
+        <v>405338.1540469945</v>
       </c>
       <c r="R9" t="n">
-        <v>7023983.2812453</v>
+        <v>7023933.221161708</v>
       </c>
       <c r="S9" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>
@@ -1552,7 +1554,7 @@
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>2022-03-12</t>
+          <t>2019-06-01</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
@@ -1562,7 +1564,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2022-03-12</t>
+          <t>2019-10-31</t>
         </is>
       </c>
       <c r="AB9" t="inlineStr">
@@ -1570,33 +1572,31 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC9" t="inlineStr">
-        <is>
-          <t>På rönn.</t>
-        </is>
-      </c>
       <c r="AD9" t="b">
         <v>0</v>
       </c>
       <c r="AE9" t="b">
         <v>0</v>
       </c>
-      <c r="AF9" t="inlineStr"/>
       <c r="AG9" t="b">
         <v>0</v>
       </c>
       <c r="AT9" t="inlineStr"/>
       <c r="AW9" t="inlineStr">
         <is>
-          <t>Andreas Johnsen</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AX9" t="inlineStr">
         <is>
-          <t>Andreas Johnsen</t>
-        </is>
-      </c>
-      <c r="AY9" t="inlineStr"/>
+          <t>Via Erland Lindblad</t>
+        </is>
+      </c>
+      <c r="AY9" t="inlineStr">
+        <is>
+          <t>Kontinuitetsskogar och skogar med höga naturvärden ovan och i nära anslutning till fjällnära gränsen</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">

--- a/artfynd/A 64239-2021.xlsx
+++ b/artfynd/A 64239-2021.xlsx
@@ -680,7 +680,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>98677520</v>
+        <v>75200047</v>
       </c>
       <c r="B2" t="n">
         <v>78570</v>
@@ -714,20 +714,19 @@
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Öster om väfjället, Jmt</t>
+          <t>Väfjället Ö, Jmt</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>405698.3343474483</v>
+        <v>405243.815541066</v>
       </c>
       <c r="R2" t="n">
-        <v>7024227.802171786</v>
+        <v>7023664.953867411</v>
       </c>
       <c r="S2" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -751,22 +750,22 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>2022-02-19</t>
+          <t>2018-12-06</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>13:46</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2022-02-19</t>
+          <t>2018-12-06</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>13:46</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -781,22 +780,22 @@
       <c r="AT2" t="inlineStr"/>
       <c r="AW2" t="inlineStr">
         <is>
-          <t>Oskar Kullingsjö</t>
+          <t>Johan Råghall</t>
         </is>
       </c>
       <c r="AX2" t="inlineStr">
         <is>
-          <t>Oskar Kullingsjö</t>
+          <t>Johan Råghall, Andreas Johnsen</t>
         </is>
       </c>
       <c r="AY2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>98677522</v>
+        <v>75200049</v>
       </c>
       <c r="B3" t="n">
-        <v>78596</v>
+        <v>77668</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -805,42 +804,41 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6462</v>
+        <v>1249</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Norsk näverlav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Platismatia norvegica</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(Lynge) W.L.Culb. &amp; C.F.Culb.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Öster om väfjället, Jmt</t>
+          <t>Väfjället Ö, Jmt</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>405698.3343474483</v>
+        <v>405250.8236957884</v>
       </c>
       <c r="R3" t="n">
-        <v>7024227.802171786</v>
+        <v>7023627.885832503</v>
       </c>
       <c r="S3" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -864,22 +862,27 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>2022-02-19</t>
+          <t>2018-12-06</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>13:46</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2022-02-19</t>
+          <t>2018-12-06</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>13:46</t>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC3" t="inlineStr">
+        <is>
+          <t>På björk</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -894,22 +897,22 @@
       <c r="AT3" t="inlineStr"/>
       <c r="AW3" t="inlineStr">
         <is>
-          <t>Oskar Kullingsjö</t>
+          <t>Johan Råghall</t>
         </is>
       </c>
       <c r="AX3" t="inlineStr">
         <is>
-          <t>Oskar Kullingsjö</t>
+          <t>Johan Råghall, Andreas Johnsen</t>
         </is>
       </c>
       <c r="AY3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>99109084</v>
+        <v>75200051</v>
       </c>
       <c r="B4" t="n">
-        <v>78570</v>
+        <v>89406</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -922,40 +925,37 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>2081</v>
+        <v>1204</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Gränsticka</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Phellopilus nigrolimitatus</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
           <t>Väfjället Ö, Jmt</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>405532.1064589866</v>
+        <v>405250.0403920931</v>
       </c>
       <c r="R4" t="n">
-        <v>7024100.103475161</v>
+        <v>7023586.102515888</v>
       </c>
       <c r="S4" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -979,7 +979,7 @@
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>2022-03-12</t>
+          <t>2018-12-06</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
@@ -989,7 +989,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2022-03-12</t>
+          <t>2018-12-06</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
@@ -1003,29 +1003,28 @@
       <c r="AE4" t="b">
         <v>0</v>
       </c>
-      <c r="AF4" t="inlineStr"/>
       <c r="AG4" t="b">
         <v>0</v>
       </c>
       <c r="AT4" t="inlineStr"/>
       <c r="AW4" t="inlineStr">
         <is>
-          <t>Andreas Johnsen</t>
+          <t>Johan Råghall</t>
         </is>
       </c>
       <c r="AX4" t="inlineStr">
         <is>
-          <t>Andreas Johnsen</t>
+          <t>Johan Råghall, Andreas Johnsen</t>
         </is>
       </c>
       <c r="AY4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>99108983</v>
+        <v>91846294</v>
       </c>
       <c r="B5" t="n">
-        <v>78570</v>
+        <v>55608</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1038,40 +1037,37 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>2081</v>
+        <v>102612</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Järpe</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Tetrastes bonasia</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Väfjället Ö, Jmt</t>
+          <t>Jämtlands län, Jmt</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>405469.7060604398</v>
+        <v>405338.1540469945</v>
       </c>
       <c r="R5" t="n">
-        <v>7023983.2812453</v>
+        <v>7023933.221161708</v>
       </c>
       <c r="S5" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
@@ -1095,7 +1091,7 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>2022-03-12</t>
+          <t>2019-06-01</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
@@ -1105,7 +1101,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2022-03-12</t>
+          <t>2019-10-31</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
@@ -1113,37 +1109,35 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>På rönn.</t>
-        </is>
-      </c>
       <c r="AD5" t="b">
         <v>0</v>
       </c>
       <c r="AE5" t="b">
         <v>0</v>
       </c>
-      <c r="AF5" t="inlineStr"/>
       <c r="AG5" t="b">
         <v>0</v>
       </c>
       <c r="AT5" t="inlineStr"/>
       <c r="AW5" t="inlineStr">
         <is>
-          <t>Andreas Johnsen</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AX5" t="inlineStr">
         <is>
-          <t>Andreas Johnsen</t>
-        </is>
-      </c>
-      <c r="AY5" t="inlineStr"/>
+          <t>Via Erland Lindblad</t>
+        </is>
+      </c>
+      <c r="AY5" t="inlineStr">
+        <is>
+          <t>Kontinuitetsskogar och skogar med höga naturvärden ovan och i nära anslutning till fjällnära gränsen</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>75200047</v>
+        <v>98677520</v>
       </c>
       <c r="B6" t="n">
         <v>78570</v>
@@ -1177,19 +1171,20 @@
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Väfjället Ö, Jmt</t>
+          <t>Öster om väfjället, Jmt</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>405243.815541066</v>
+        <v>405698.3343474483</v>
       </c>
       <c r="R6" t="n">
-        <v>7023664.953867411</v>
+        <v>7024227.802171786</v>
       </c>
       <c r="S6" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
@@ -1213,22 +1208,22 @@
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>2018-12-06</t>
+          <t>2022-02-19</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>13:46</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2018-12-06</t>
+          <t>2022-02-19</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>13:46</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1243,22 +1238,22 @@
       <c r="AT6" t="inlineStr"/>
       <c r="AW6" t="inlineStr">
         <is>
-          <t>Johan Råghall</t>
+          <t>Oskar Kullingsjö</t>
         </is>
       </c>
       <c r="AX6" t="inlineStr">
         <is>
-          <t>Johan Råghall, Andreas Johnsen</t>
+          <t>Oskar Kullingsjö</t>
         </is>
       </c>
       <c r="AY6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>75200049</v>
+        <v>98677522</v>
       </c>
       <c r="B7" t="n">
-        <v>77668</v>
+        <v>78596</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1267,41 +1262,42 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>1249</v>
+        <v>6462</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Norsk näverlav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Platismatia norvegica</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Lynge) W.L.Culb. &amp; C.F.Culb.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Väfjället Ö, Jmt</t>
+          <t>Öster om väfjället, Jmt</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>405250.8236957884</v>
+        <v>405698.3343474483</v>
       </c>
       <c r="R7" t="n">
-        <v>7023627.885832503</v>
+        <v>7024227.802171786</v>
       </c>
       <c r="S7" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
@@ -1325,27 +1321,22 @@
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>2018-12-06</t>
+          <t>2022-02-19</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>13:46</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2018-12-06</t>
+          <t>2022-02-19</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC7" t="inlineStr">
-        <is>
-          <t>På björk</t>
+          <t>13:46</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1360,22 +1351,22 @@
       <c r="AT7" t="inlineStr"/>
       <c r="AW7" t="inlineStr">
         <is>
-          <t>Johan Råghall</t>
+          <t>Oskar Kullingsjö</t>
         </is>
       </c>
       <c r="AX7" t="inlineStr">
         <is>
-          <t>Johan Råghall, Andreas Johnsen</t>
+          <t>Oskar Kullingsjö</t>
         </is>
       </c>
       <c r="AY7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>75200051</v>
+        <v>99109084</v>
       </c>
       <c r="B8" t="n">
-        <v>89406</v>
+        <v>78570</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1388,37 +1379,40 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>1204</v>
+        <v>2081</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Gränsticka</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Phellopilus nigrolimitatus</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="N8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
           <t>Väfjället Ö, Jmt</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>405250.0403920931</v>
+        <v>405532.1064589866</v>
       </c>
       <c r="R8" t="n">
-        <v>7023586.102515888</v>
+        <v>7024100.103475161</v>
       </c>
       <c r="S8" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
@@ -1442,7 +1436,7 @@
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>2018-12-06</t>
+          <t>2022-03-12</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
@@ -1452,7 +1446,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2018-12-06</t>
+          <t>2022-03-12</t>
         </is>
       </c>
       <c r="AB8" t="inlineStr">
@@ -1466,28 +1460,29 @@
       <c r="AE8" t="b">
         <v>0</v>
       </c>
+      <c r="AF8" t="inlineStr"/>
       <c r="AG8" t="b">
         <v>0</v>
       </c>
       <c r="AT8" t="inlineStr"/>
       <c r="AW8" t="inlineStr">
         <is>
-          <t>Johan Råghall</t>
+          <t>Andreas Johnsen</t>
         </is>
       </c>
       <c r="AX8" t="inlineStr">
         <is>
-          <t>Johan Råghall, Andreas Johnsen</t>
+          <t>Andreas Johnsen</t>
         </is>
       </c>
       <c r="AY8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>91846294</v>
+        <v>99108983</v>
       </c>
       <c r="B9" t="n">
-        <v>55608</v>
+        <v>78570</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1500,37 +1495,40 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>102612</v>
+        <v>2081</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Järpe</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Tetrastes bonasia</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="N9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Jämtlands län, Jmt</t>
+          <t>Väfjället Ö, Jmt</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>405338.1540469945</v>
+        <v>405469.7060604398</v>
       </c>
       <c r="R9" t="n">
-        <v>7023933.221161708</v>
+        <v>7023983.2812453</v>
       </c>
       <c r="S9" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>
@@ -1554,7 +1552,7 @@
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>2019-06-01</t>
+          <t>2022-03-12</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
@@ -1564,7 +1562,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2019-10-31</t>
+          <t>2022-03-12</t>
         </is>
       </c>
       <c r="AB9" t="inlineStr">
@@ -1572,31 +1570,33 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC9" t="inlineStr">
+        <is>
+          <t>På rönn.</t>
+        </is>
+      </c>
       <c r="AD9" t="b">
         <v>0</v>
       </c>
       <c r="AE9" t="b">
         <v>0</v>
       </c>
+      <c r="AF9" t="inlineStr"/>
       <c r="AG9" t="b">
         <v>0</v>
       </c>
       <c r="AT9" t="inlineStr"/>
       <c r="AW9" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Andreas Johnsen</t>
         </is>
       </c>
       <c r="AX9" t="inlineStr">
         <is>
-          <t>Via Erland Lindblad</t>
-        </is>
-      </c>
-      <c r="AY9" t="inlineStr">
-        <is>
-          <t>Kontinuitetsskogar och skogar med höga naturvärden ovan och i nära anslutning till fjällnära gränsen</t>
-        </is>
-      </c>
+          <t>Andreas Johnsen</t>
+        </is>
+      </c>
+      <c r="AY9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
